--- a/data.xlsx
+++ b/data.xlsx
@@ -7,16 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="podaci" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>Republika Hrvatska</t>
   </si>
@@ -141,61 +139,56 @@
     <t>Broj poljoprivrednih gospodarstava</t>
   </si>
   <si>
-    <t>Korištena poljoprivredna površina, ha</t>
-  </si>
-  <si>
-    <t>od toga
-Of that</t>
-  </si>
-  <si>
-    <t>Goveda
-Cattle</t>
-  </si>
-  <si>
-    <t>Number of agricultural holdings</t>
-  </si>
-  <si>
-    <t>Utilised agricultural area, ha</t>
-  </si>
-  <si>
-    <t>žitarice
-Cereals</t>
-  </si>
-  <si>
-    <t>šećerna repa
-Sugar beet</t>
-  </si>
-  <si>
-    <t>povrtnjaci
-Kitchen garden</t>
-  </si>
-  <si>
-    <t>trajni nasadi
-Permanent crops</t>
-  </si>
-  <si>
-    <t>voćnjaci (isključujući citruse)
-Orchards(excluding citrus fruit)</t>
-  </si>
-  <si>
-    <t>voćnjaci (isključujući citruse)
-Orchards (excluding citrus fruit)</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>kurac</t>
-  </si>
-  <si>
-    <t>picka</t>
+    <t>Povrtnjaci</t>
+  </si>
+  <si>
+    <t>Trajni nasadi</t>
+  </si>
+  <si>
+    <t>Goveda</t>
+  </si>
+  <si>
+    <t>Broj poljoprivrednih gospodarstava2</t>
+  </si>
+  <si>
+    <t>Korištena poljoprivredna površina, ha2</t>
+  </si>
+  <si>
+    <t>Žitarice2</t>
+  </si>
+  <si>
+    <t>Šećerna repa2</t>
+  </si>
+  <si>
+    <t>Povrtnjaci2</t>
+  </si>
+  <si>
+    <t>Trajni nasadi2</t>
+  </si>
+  <si>
+    <t>Voćnaci2</t>
+  </si>
+  <si>
+    <t>Goveda2</t>
+  </si>
+  <si>
+    <t>Koristena poljoprivredna povrsina, ha</t>
+  </si>
+  <si>
+    <t>Zitarice</t>
+  </si>
+  <si>
+    <t>Secerna repa</t>
+  </si>
+  <si>
+    <t>Vocnjaci</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +216,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +273,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -328,40 +358,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -672,39 +860,91 @@
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33" customWidth="1"/>
+    <col min="12" max="12" width="36" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="F1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>157440</v>
       </c>
       <c r="C2" s="4">
@@ -728,36 +968,36 @@
       <c r="I2" s="4">
         <v>453200</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>134459</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>1562983</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>533085</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>15072</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>1848</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>71965</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>27780</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="13">
         <v>418443</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>14861</v>
       </c>
       <c r="C3" s="5">
@@ -781,42 +1021,36 @@
       <c r="I3" s="5">
         <v>38884</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>11214</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>61461</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>33546</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>0.5</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>160</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>2463</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>1335</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="14">
         <v>26348</v>
       </c>
-      <c r="T3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>6052</v>
       </c>
       <c r="C4" s="5">
@@ -840,60 +1074,38 @@
       <c r="I4" s="5">
         <v>15174</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>7334</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>20642</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>9084</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>94</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>2107</v>
       </c>
-      <c r="P4" s="5">
+      <c r="Q4" s="5">
         <v>881</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="R4" s="14">
         <v>8960</v>
       </c>
-      <c r="T4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="AD4" s="1"/>
+      <c r="AI4" s="1"/>
+    </row>
+    <row r="5" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>11396</v>
       </c>
       <c r="C5" s="5">
@@ -917,78 +1129,41 @@
       <c r="I5" s="5">
         <v>37333</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>6707</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>63630</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>24426</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>87</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>1999</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>1680</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="14">
         <v>18077</v>
       </c>
-      <c r="T5" t="s">
-        <v>44</v>
-      </c>
-      <c r="U5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>7604</v>
       </c>
       <c r="C6" s="5">
@@ -1009,39 +1184,39 @@
       <c r="H6" s="5">
         <v>965</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="7">
+      <c r="K6" s="11">
         <v>6601</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>71</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>1562</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>1289</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>8844</v>
       </c>
       <c r="C7" s="5">
@@ -1065,36 +1240,36 @@
       <c r="I7" s="5">
         <v>10290</v>
       </c>
-      <c r="J7" s="8">
+      <c r="K7" s="12">
         <v>7360</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>32309</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>20854</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>20</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>107</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>1551</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>717</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="14">
         <v>6305</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>10688</v>
       </c>
       <c r="C8" s="5">
@@ -1118,36 +1293,36 @@
       <c r="I8" s="5">
         <v>68228</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>8628</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>69915</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>46697</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>36</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>108</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>1860</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>970</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="14">
         <v>42162</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>12118</v>
       </c>
       <c r="C9" s="5">
@@ -1171,36 +1346,36 @@
       <c r="I9" s="5">
         <v>66995</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>9512</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>85822</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>48742</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>8</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>96</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>2370</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>2019</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="14">
         <v>44498</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>2418</v>
       </c>
       <c r="C10" s="5">
@@ -1224,36 +1399,36 @@
       <c r="I10" s="5">
         <v>907.771612</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>2376</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>15985</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>21</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>1191</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="Q10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="14">
         <v>1393</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>3792</v>
       </c>
       <c r="C11" s="5">
@@ -1277,36 +1452,36 @@
       <c r="I11" s="5">
         <v>16131</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>4277</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <v>125589</v>
       </c>
-      <c r="L11" s="5">
+      <c r="M11" s="5">
         <v>4381</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="N11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>56</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>615</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>435</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="14">
         <v>10410</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>7080</v>
       </c>
       <c r="C12" s="5">
@@ -1330,36 +1505,36 @@
       <c r="I12" s="5">
         <v>16368</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>5718</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>83175</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>41739</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>576</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>93</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>2139</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>1578</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="14">
         <v>9765</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>5139</v>
       </c>
       <c r="C13" s="5">
@@ -1383,36 +1558,36 @@
       <c r="I13" s="5">
         <v>11278</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>4383</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>44813</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>21978</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>654</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>50</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>2892</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>1458</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="14">
         <v>8078</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>7137</v>
       </c>
       <c r="C14" s="5">
@@ -1436,36 +1611,36 @@
       <c r="I14" s="5">
         <v>15427</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>6085</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>70026</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>37162</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>425</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>126</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>2499</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>2302</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="14">
         <v>10171</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>6176</v>
       </c>
       <c r="C15" s="5">
@@ -1489,36 +1664,36 @@
       <c r="I15" s="5">
         <v>3684.9042810000001</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <v>5943</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>82981</v>
       </c>
-      <c r="L15" s="5">
+      <c r="M15" s="5">
         <v>1283</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="N15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="5">
+      <c r="O15" s="5">
         <v>123</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>5674</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>1465</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="14">
         <v>4405</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="3">
         <v>12078</v>
       </c>
       <c r="C16" s="5">
@@ -1542,36 +1717,36 @@
       <c r="I16" s="5">
         <v>72027</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <v>9282</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>212713</v>
       </c>
-      <c r="L16" s="5">
+      <c r="M16" s="5">
         <v>112478</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>6995</v>
       </c>
-      <c r="N16" s="5">
+      <c r="O16" s="5">
         <v>94</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>7185</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>4748</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="14">
         <v>76671</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="3">
         <v>4248</v>
       </c>
       <c r="C17" s="5">
@@ -1595,36 +1770,36 @@
       <c r="I17" s="5">
         <v>1353.1069500000001</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <v>4661</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>94931</v>
       </c>
-      <c r="L17" s="5">
+      <c r="M17" s="5">
         <v>554</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="N17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N17" s="5">
+      <c r="O17" s="5">
         <v>49</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>3483</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>232</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="14">
         <v>4356</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="3">
         <v>7122</v>
       </c>
       <c r="C18" s="5">
@@ -1648,36 +1823,36 @@
       <c r="I18" s="5">
         <v>25618</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>6087</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>130605</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>67912</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>6246</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="5">
         <v>105</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>3222</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <v>1584</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="R18" s="14">
         <v>24557</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="3">
         <v>8950</v>
       </c>
       <c r="C19" s="5">
@@ -1701,36 +1876,36 @@
       <c r="I19" s="5">
         <v>2741.5374310000002</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <v>9701</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>83964</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>1604</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="N19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="5">
         <v>205</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>8400</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="Q19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="R19" s="14">
         <v>8306</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="3">
         <v>4836</v>
       </c>
       <c r="C20" s="5">
@@ -1754,36 +1929,36 @@
       <c r="I20" s="5">
         <v>7987.6235139999999</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <v>5378</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>45607</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="M20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="N20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N20" s="5">
+      <c r="O20" s="5">
         <v>48</v>
       </c>
-      <c r="O20" s="5">
+      <c r="P20" s="5">
         <v>8850</v>
       </c>
-      <c r="P20" s="5">
+      <c r="Q20" s="5">
         <v>527</v>
       </c>
-      <c r="Q20" s="5">
+      <c r="R20" s="14">
         <v>7779</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="3">
         <v>6584</v>
       </c>
       <c r="C21" s="5">
@@ -1804,39 +1979,39 @@
       <c r="H21" s="5">
         <v>380</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <v>6618</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>18493</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="M21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="N21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N21" s="5">
+      <c r="O21" s="5">
         <v>96</v>
       </c>
-      <c r="O21" s="5">
+      <c r="P21" s="5">
         <v>8213</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <v>512</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="R21" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="3">
         <v>5896</v>
       </c>
       <c r="C22" s="5">
@@ -1860,81 +2035,82 @@
       <c r="I22" s="5">
         <v>10752</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <v>3758</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>34645</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5">
         <v>21963</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>96</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="5">
         <v>29</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="5">
         <v>1694</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <v>989</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="R22" s="14">
         <v>8986</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="16">
         <v>4421</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="17">
         <v>19463</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="17">
         <v>6260</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="17">
         <v>54</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="17">
         <v>2175</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="17">
         <v>1476</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="19"/>
+      <c r="K23" s="17">
         <v>2836</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="17">
         <v>14805</v>
       </c>
-      <c r="L23" s="5">
+      <c r="M23" s="17">
         <v>5187</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="17">
         <v>15</v>
       </c>
-      <c r="N23" s="5">
+      <c r="O23" s="17">
         <v>30</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="17">
         <v>1996</v>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="17">
         <v>1653</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="R23" s="20">
         <v>3414</v>
       </c>
     </row>
@@ -1945,29 +2121,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -151,24 +151,12 @@
     <t>Broj poljoprivrednih gospodarstava2</t>
   </si>
   <si>
-    <t>Korištena poljoprivredna površina, ha2</t>
-  </si>
-  <si>
-    <t>Žitarice2</t>
-  </si>
-  <si>
-    <t>Šećerna repa2</t>
-  </si>
-  <si>
     <t>Povrtnjaci2</t>
   </si>
   <si>
     <t>Trajni nasadi2</t>
   </si>
   <si>
-    <t>Voćnaci2</t>
-  </si>
-  <si>
     <t>Goveda2</t>
   </si>
   <si>
@@ -182,6 +170,18 @@
   </si>
   <si>
     <t>Vocnjaci</t>
+  </si>
+  <si>
+    <t>Koristena poljoprivredna povrsina, ha2</t>
+  </si>
+  <si>
+    <t>Zitarice2</t>
+  </si>
+  <si>
+    <t>Secerna repa2</t>
+  </si>
+  <si>
+    <t>Vocnjaci2</t>
   </si>
 </sst>
 </file>
@@ -859,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,13 +892,13 @@
         <v>40</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>41</v>
@@ -907,7 +907,7 @@
         <v>42</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>43</v>
@@ -919,25 +919,25 @@
         <v>44</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="podaci" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -485,7 +485,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -546,11 +546,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Dobro" xfId="2" builtinId="26"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Provjera ćelije" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -566,12 +567,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -613,7 +617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,7 +652,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -859,32 +863,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -909,7 +913,7 @@
       <c r="H1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="22" t="s">
         <v>43</v>
       </c>
       <c r="J1" s="21" t="s">
@@ -940,7 +944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -993,7 +997,7 @@
         <v>418443</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1050,7 @@
         <v>26348</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1101,7 +1105,7 @@
       <c r="AD4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1163,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1265,7 +1269,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>42162</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1481,7 @@
         <v>10410</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1530,7 +1534,7 @@
         <v>9765</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>8078</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
@@ -1636,7 +1640,7 @@
         <v>10171</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>21</v>
       </c>
@@ -1689,7 +1693,7 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +1746,7 @@
         <v>76671</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
@@ -1848,7 +1852,7 @@
         <v>24557</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>26</v>
       </c>
@@ -1901,7 +1905,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>28</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v>7779</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
@@ -2007,7 +2011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>34</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>8986</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>35</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -279,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -456,15 +456,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </left>
@@ -485,7 +476,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -539,8 +530,7 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -861,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI23"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,284 +868,233 @@
     <col min="7" max="7" width="12.5546875" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="J1" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>157440</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>1571200</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D3" s="4">
         <v>590940</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="4">
         <v>20250</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F3" s="4">
         <v>1760</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G3" s="4">
         <v>72940</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H3" s="4">
         <v>27350</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I3" s="4">
         <v>453200</v>
       </c>
-      <c r="K2" s="4">
+      <c r="J3" s="4">
         <v>134459</v>
       </c>
-      <c r="L2" s="4">
+      <c r="K3" s="4">
         <v>1562983</v>
       </c>
-      <c r="M2" s="4">
+      <c r="L3" s="4">
         <v>533085</v>
       </c>
-      <c r="N2" s="4">
+      <c r="M3" s="4">
         <v>15072</v>
       </c>
-      <c r="O2" s="4">
+      <c r="N3" s="4">
         <v>1848</v>
       </c>
-      <c r="P2" s="4">
+      <c r="O3" s="4">
         <v>71965</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="P3" s="4">
         <v>27780</v>
       </c>
-      <c r="R2" s="13">
+      <c r="Q3" s="13">
         <v>418443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>14861</v>
-      </c>
-      <c r="C3" s="5">
-        <v>91732</v>
-      </c>
-      <c r="D3" s="5">
-        <v>43376</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>179</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2790</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1318</v>
-      </c>
-      <c r="I3" s="5">
-        <v>38884</v>
-      </c>
-      <c r="K3" s="5">
-        <v>11214</v>
-      </c>
-      <c r="L3" s="5">
-        <v>61461</v>
-      </c>
-      <c r="M3" s="5">
-        <v>33546</v>
-      </c>
-      <c r="N3" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="O3" s="5">
-        <v>160</v>
-      </c>
-      <c r="P3" s="5">
-        <v>2463</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>1335</v>
-      </c>
-      <c r="R3" s="14">
-        <v>26348</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>6052</v>
+        <v>14861</v>
       </c>
       <c r="C4" s="5">
-        <v>20594</v>
+        <v>91732</v>
       </c>
       <c r="D4" s="5">
-        <v>7362</v>
+        <v>43376</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="5">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="G4" s="5">
-        <v>1526</v>
+        <v>2790</v>
       </c>
       <c r="H4" s="5">
-        <v>581</v>
+        <v>1318</v>
       </c>
       <c r="I4" s="5">
-        <v>15174</v>
+        <v>38884</v>
+      </c>
+      <c r="J4" s="5">
+        <v>11214</v>
       </c>
       <c r="K4" s="5">
-        <v>7334</v>
+        <v>61461</v>
       </c>
       <c r="L4" s="5">
-        <v>20642</v>
+        <v>33546</v>
       </c>
       <c r="M4" s="5">
-        <v>9084</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>2</v>
+        <v>0.5</v>
+      </c>
+      <c r="N4" s="5">
+        <v>160</v>
       </c>
       <c r="O4" s="5">
-        <v>94</v>
+        <v>2463</v>
       </c>
       <c r="P4" s="5">
-        <v>2107</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>881</v>
-      </c>
-      <c r="R4" s="14">
-        <v>8960</v>
+        <v>1335</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>26348</v>
       </c>
       <c r="AD4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>11396</v>
+        <v>6052</v>
       </c>
       <c r="C5" s="5">
-        <v>81668</v>
+        <v>20594</v>
       </c>
       <c r="D5" s="5">
-        <v>30607</v>
+        <v>7362</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="G5" s="5">
-        <v>2775</v>
+        <v>1526</v>
       </c>
       <c r="H5" s="5">
-        <v>2281</v>
+        <v>581</v>
       </c>
       <c r="I5" s="5">
-        <v>37333</v>
+        <v>15174</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7334</v>
       </c>
       <c r="K5" s="5">
-        <v>6707</v>
+        <v>20642</v>
       </c>
       <c r="L5" s="5">
-        <v>63630</v>
-      </c>
-      <c r="M5" s="5">
-        <v>24426</v>
-      </c>
-      <c r="N5" s="5" t="s">
+        <v>9084</v>
+      </c>
+      <c r="M5" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="N5" s="5">
+        <v>94</v>
+      </c>
       <c r="O5" s="5">
-        <v>87</v>
+        <v>2107</v>
       </c>
       <c r="P5" s="5">
-        <v>1999</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1680</v>
-      </c>
-      <c r="R5" s="14">
-        <v>18077</v>
+        <v>881</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>8960</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -1165,961 +1104,1013 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>7604</v>
+        <v>11396</v>
       </c>
       <c r="C6" s="5">
-        <v>65024</v>
+        <v>81668</v>
       </c>
       <c r="D6" s="5">
-        <v>8784</v>
+        <v>30607</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="5">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="G6" s="5">
-        <v>1152</v>
+        <v>2775</v>
       </c>
       <c r="H6" s="5">
-        <v>965</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="11">
-        <v>6601</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>7</v>
+        <v>2281</v>
+      </c>
+      <c r="I6" s="5">
+        <v>37333</v>
+      </c>
+      <c r="J6" s="5">
+        <v>6707</v>
+      </c>
+      <c r="K6" s="5">
+        <v>63630</v>
+      </c>
+      <c r="L6" s="5">
+        <v>24426</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="N6" s="5">
+        <v>87</v>
+      </c>
       <c r="O6" s="5">
-        <v>71</v>
+        <v>1999</v>
       </c>
       <c r="P6" s="5">
-        <v>1562</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1289</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>9</v>
+        <v>1680</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>18077</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>8844</v>
+        <v>7604</v>
       </c>
       <c r="C7" s="5">
-        <v>35293</v>
+        <v>65024</v>
       </c>
       <c r="D7" s="5">
-        <v>22518</v>
-      </c>
-      <c r="E7" s="5">
-        <v>57</v>
+        <v>8784</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="F7" s="5">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5">
-        <v>1693</v>
+        <v>1152</v>
       </c>
       <c r="H7" s="5">
-        <v>772</v>
-      </c>
-      <c r="I7" s="5">
-        <v>10290</v>
-      </c>
-      <c r="K7" s="12">
-        <v>7360</v>
-      </c>
-      <c r="L7" s="5">
-        <v>32309</v>
-      </c>
-      <c r="M7" s="5">
-        <v>20854</v>
+        <v>965</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="11">
+        <v>6601</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="N7" s="5">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="O7" s="5">
-        <v>107</v>
+        <v>1562</v>
       </c>
       <c r="P7" s="5">
-        <v>1551</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>717</v>
-      </c>
-      <c r="R7" s="14">
-        <v>6305</v>
+        <v>1289</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
-        <v>10688</v>
+        <v>8844</v>
       </c>
       <c r="C8" s="5">
-        <v>80764</v>
+        <v>35293</v>
       </c>
       <c r="D8" s="5">
-        <v>51910</v>
+        <v>22518</v>
       </c>
       <c r="E8" s="5">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="F8" s="5">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G8" s="5">
-        <v>1896</v>
+        <v>1693</v>
       </c>
       <c r="H8" s="5">
-        <v>892</v>
+        <v>772</v>
       </c>
       <c r="I8" s="5">
-        <v>68228</v>
+        <v>10290</v>
+      </c>
+      <c r="J8" s="12">
+        <v>7360</v>
       </c>
       <c r="K8" s="5">
-        <v>8628</v>
+        <v>32309</v>
       </c>
       <c r="L8" s="5">
-        <v>69915</v>
+        <v>20854</v>
       </c>
       <c r="M8" s="5">
-        <v>46697</v>
+        <v>20</v>
       </c>
       <c r="N8" s="5">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="O8" s="5">
-        <v>108</v>
+        <v>1551</v>
       </c>
       <c r="P8" s="5">
-        <v>1860</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>970</v>
-      </c>
-      <c r="R8" s="14">
-        <v>42162</v>
+        <v>717</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>6305</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>12118</v>
+        <v>10688</v>
       </c>
       <c r="C9" s="5">
-        <v>104443</v>
+        <v>80764</v>
       </c>
       <c r="D9" s="5">
-        <v>60340</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>2</v>
+        <v>51910</v>
+      </c>
+      <c r="E9" s="5">
+        <v>139</v>
       </c>
       <c r="F9" s="5">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="G9" s="5">
-        <v>2370</v>
+        <v>1896</v>
       </c>
       <c r="H9" s="5">
-        <v>1843</v>
+        <v>892</v>
       </c>
       <c r="I9" s="5">
-        <v>66995</v>
+        <v>68228</v>
+      </c>
+      <c r="J9" s="5">
+        <v>8628</v>
       </c>
       <c r="K9" s="5">
-        <v>9512</v>
+        <v>69915</v>
       </c>
       <c r="L9" s="5">
-        <v>85822</v>
+        <v>46697</v>
       </c>
       <c r="M9" s="5">
-        <v>48742</v>
+        <v>36</v>
       </c>
       <c r="N9" s="5">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="O9" s="5">
-        <v>96</v>
+        <v>1860</v>
       </c>
       <c r="P9" s="5">
-        <v>2370</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>2019</v>
-      </c>
-      <c r="R9" s="14">
-        <v>44498</v>
+        <v>970</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>42162</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
-        <v>2418</v>
+        <v>12118</v>
       </c>
       <c r="C10" s="5">
-        <v>71047</v>
+        <v>104443</v>
       </c>
       <c r="D10" s="5">
-        <v>559</v>
+        <v>60340</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="5">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="G10" s="5">
-        <v>1262</v>
+        <v>2370</v>
       </c>
       <c r="H10" s="5">
-        <v>181</v>
+        <v>1843</v>
       </c>
       <c r="I10" s="5">
-        <v>907.771612</v>
+        <v>66995</v>
+      </c>
+      <c r="J10" s="5">
+        <v>9512</v>
       </c>
       <c r="K10" s="5">
-        <v>2376</v>
+        <v>85822</v>
       </c>
       <c r="L10" s="5">
-        <v>15985</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>2</v>
+        <v>48742</v>
+      </c>
+      <c r="M10" s="5">
+        <v>8</v>
+      </c>
+      <c r="N10" s="5">
+        <v>96</v>
       </c>
       <c r="O10" s="5">
-        <v>21</v>
+        <v>2370</v>
       </c>
       <c r="P10" s="5">
-        <v>1191</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="R10" s="14">
-        <v>1393</v>
+        <v>2019</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>44498</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3">
-        <v>3792</v>
+        <v>2418</v>
       </c>
       <c r="C11" s="5">
-        <v>119222</v>
+        <v>71047</v>
       </c>
       <c r="D11" s="5">
-        <v>2883</v>
+        <v>559</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="5">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G11" s="5">
-        <v>600</v>
+        <v>1262</v>
       </c>
       <c r="H11" s="5">
-        <v>391</v>
+        <v>181</v>
       </c>
       <c r="I11" s="5">
-        <v>16131</v>
+        <v>907.771612</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2376</v>
       </c>
       <c r="K11" s="5">
-        <v>4277</v>
-      </c>
-      <c r="L11" s="5">
-        <v>125589</v>
-      </c>
-      <c r="M11" s="5">
-        <v>4381</v>
-      </c>
-      <c r="N11" s="5" t="s">
+        <v>15985</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="N11" s="5">
+        <v>21</v>
+      </c>
       <c r="O11" s="5">
-        <v>56</v>
-      </c>
-      <c r="P11" s="5">
-        <v>615</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>435</v>
-      </c>
-      <c r="R11" s="14">
-        <v>10410</v>
+        <v>1191</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>1393</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>7080</v>
+        <v>3792</v>
       </c>
       <c r="C12" s="5">
-        <v>92695</v>
+        <v>119222</v>
       </c>
       <c r="D12" s="5">
-        <v>48578</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1703</v>
+        <v>2883</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="F12" s="5">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="G12" s="5">
-        <v>2617</v>
+        <v>600</v>
       </c>
       <c r="H12" s="5">
-        <v>1956</v>
+        <v>391</v>
       </c>
       <c r="I12" s="5">
-        <v>16368</v>
+        <v>16131</v>
+      </c>
+      <c r="J12" s="5">
+        <v>4277</v>
       </c>
       <c r="K12" s="5">
-        <v>5718</v>
+        <v>125589</v>
       </c>
       <c r="L12" s="5">
-        <v>83175</v>
-      </c>
-      <c r="M12" s="5">
-        <v>41739</v>
+        <v>4381</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="N12" s="5">
-        <v>576</v>
+        <v>56</v>
       </c>
       <c r="O12" s="5">
-        <v>93</v>
+        <v>615</v>
       </c>
       <c r="P12" s="5">
-        <v>2139</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1578</v>
-      </c>
-      <c r="R12" s="14">
-        <v>9765</v>
+        <v>435</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>10410</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>5139</v>
+        <v>7080</v>
       </c>
       <c r="C13" s="5">
-        <v>50096</v>
+        <v>92695</v>
       </c>
       <c r="D13" s="5">
-        <v>25840</v>
+        <v>48578</v>
       </c>
       <c r="E13" s="5">
-        <v>603</v>
+        <v>1703</v>
       </c>
       <c r="F13" s="5">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G13" s="5">
-        <v>3261</v>
+        <v>2617</v>
       </c>
       <c r="H13" s="5">
-        <v>1675</v>
+        <v>1956</v>
       </c>
       <c r="I13" s="5">
-        <v>11278</v>
+        <v>16368</v>
+      </c>
+      <c r="J13" s="5">
+        <v>5718</v>
       </c>
       <c r="K13" s="5">
-        <v>4383</v>
+        <v>83175</v>
       </c>
       <c r="L13" s="5">
-        <v>44813</v>
+        <v>41739</v>
       </c>
       <c r="M13" s="5">
-        <v>21978</v>
+        <v>576</v>
       </c>
       <c r="N13" s="5">
-        <v>654</v>
+        <v>93</v>
       </c>
       <c r="O13" s="5">
-        <v>50</v>
+        <v>2139</v>
       </c>
       <c r="P13" s="5">
-        <v>2892</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>1458</v>
-      </c>
-      <c r="R13" s="14">
-        <v>8078</v>
+        <v>1578</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>9765</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>7137</v>
+        <v>5139</v>
       </c>
       <c r="C14" s="5">
-        <v>72853</v>
+        <v>50096</v>
       </c>
       <c r="D14" s="5">
-        <v>41454</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>20</v>
+        <v>25840</v>
+      </c>
+      <c r="E14" s="5">
+        <v>603</v>
       </c>
       <c r="F14" s="5">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="G14" s="5">
-        <v>2472</v>
+        <v>3261</v>
       </c>
       <c r="H14" s="5">
-        <v>2182</v>
+        <v>1675</v>
       </c>
       <c r="I14" s="5">
-        <v>15427</v>
+        <v>11278</v>
+      </c>
+      <c r="J14" s="5">
+        <v>4383</v>
       </c>
       <c r="K14" s="5">
-        <v>6085</v>
+        <v>44813</v>
       </c>
       <c r="L14" s="5">
-        <v>70026</v>
+        <v>21978</v>
       </c>
       <c r="M14" s="5">
-        <v>37162</v>
+        <v>654</v>
       </c>
       <c r="N14" s="5">
-        <v>425</v>
+        <v>50</v>
       </c>
       <c r="O14" s="5">
-        <v>126</v>
+        <v>2892</v>
       </c>
       <c r="P14" s="5">
-        <v>2499</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>2302</v>
-      </c>
-      <c r="R14" s="14">
-        <v>10171</v>
+        <v>1458</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>8078</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>6176</v>
+        <v>7137</v>
       </c>
       <c r="C15" s="5">
-        <v>83350</v>
+        <v>72853</v>
       </c>
       <c r="D15" s="5">
-        <v>1634</v>
+        <v>41454</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="F15" s="5">
-        <v>43</v>
+        <v>131</v>
       </c>
       <c r="G15" s="5">
-        <v>5639</v>
+        <v>2472</v>
       </c>
       <c r="H15" s="5">
-        <v>1264</v>
+        <v>2182</v>
       </c>
       <c r="I15" s="5">
-        <v>3684.9042810000001</v>
+        <v>15427</v>
+      </c>
+      <c r="J15" s="5">
+        <v>6085</v>
       </c>
       <c r="K15" s="5">
-        <v>5943</v>
+        <v>70026</v>
       </c>
       <c r="L15" s="5">
-        <v>82981</v>
+        <v>37162</v>
       </c>
       <c r="M15" s="5">
-        <v>1283</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>2</v>
+        <v>425</v>
+      </c>
+      <c r="N15" s="5">
+        <v>126</v>
       </c>
       <c r="O15" s="5">
-        <v>123</v>
+        <v>2499</v>
       </c>
       <c r="P15" s="5">
-        <v>5674</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>1465</v>
-      </c>
-      <c r="R15" s="14">
-        <v>4405</v>
+        <v>2302</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>10171</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6176</v>
+      </c>
+      <c r="C16" s="5">
+        <v>83350</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1634</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5">
+        <v>43</v>
+      </c>
+      <c r="G16" s="5">
+        <v>5639</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1264</v>
+      </c>
+      <c r="I16" s="5">
+        <v>3684.9042810000001</v>
+      </c>
+      <c r="J16" s="5">
+        <v>5943</v>
+      </c>
+      <c r="K16" s="5">
+        <v>82981</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1283</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="5">
+        <v>123</v>
+      </c>
+      <c r="O16" s="5">
+        <v>5674</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1465</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B17" s="3">
         <v>12078</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C17" s="5">
         <v>221725</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <v>129722</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <v>8315</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F17" s="5">
         <v>171</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G17" s="5">
         <v>7066</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="5">
         <v>4461</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="5">
         <v>72027</v>
       </c>
-      <c r="K16" s="5">
+      <c r="J17" s="5">
         <v>9282</v>
       </c>
-      <c r="L16" s="5">
+      <c r="K17" s="5">
         <v>212713</v>
       </c>
-      <c r="M16" s="5">
+      <c r="L17" s="5">
         <v>112478</v>
       </c>
-      <c r="N16" s="5">
+      <c r="M17" s="5">
         <v>6995</v>
       </c>
-      <c r="O16" s="5">
+      <c r="N17" s="5">
         <v>94</v>
       </c>
-      <c r="P16" s="5">
+      <c r="O17" s="5">
         <v>7185</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="P17" s="5">
         <v>4748</v>
       </c>
-      <c r="R16" s="14">
+      <c r="Q17" s="14">
         <v>76671</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>4248</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C18" s="5">
         <v>73757</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <v>27</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="5">
         <v>4506</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H18" s="5">
         <v>243</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I18" s="5">
         <v>1353.1069500000001</v>
       </c>
-      <c r="K17" s="5">
+      <c r="J18" s="5">
         <v>4661</v>
       </c>
-      <c r="L17" s="5">
+      <c r="K18" s="5">
         <v>94931</v>
       </c>
-      <c r="M17" s="5">
+      <c r="L18" s="5">
         <v>554</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="M18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O17" s="5">
+      <c r="N18" s="5">
         <v>49</v>
       </c>
-      <c r="P17" s="5">
+      <c r="O18" s="5">
         <v>3483</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="P18" s="5">
         <v>232</v>
       </c>
-      <c r="R17" s="14">
+      <c r="Q18" s="14">
         <v>4356</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>7122</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C19" s="5">
         <v>131722</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <v>79879</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <v>7066</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="5">
         <v>136</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G19" s="5">
         <v>3280</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H19" s="5">
         <v>1752</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I19" s="5">
         <v>25618</v>
       </c>
-      <c r="K18" s="5">
+      <c r="J19" s="5">
         <v>6087</v>
       </c>
-      <c r="L18" s="5">
+      <c r="K19" s="5">
         <v>130605</v>
       </c>
-      <c r="M18" s="5">
+      <c r="L19" s="5">
         <v>67912</v>
       </c>
-      <c r="N18" s="5">
+      <c r="M19" s="5">
         <v>6246</v>
       </c>
-      <c r="O18" s="5">
+      <c r="N19" s="5">
         <v>105</v>
       </c>
-      <c r="P18" s="5">
+      <c r="O19" s="5">
         <v>3222</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="P19" s="5">
         <v>1584</v>
       </c>
-      <c r="R18" s="14">
+      <c r="Q19" s="14">
         <v>24557</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>8950</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="5">
         <v>64620</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D20" s="5">
         <v>1883</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>96</v>
-      </c>
-      <c r="G19" s="5">
-        <v>9227</v>
-      </c>
-      <c r="H19" s="5">
-        <v>981</v>
-      </c>
-      <c r="I19" s="5">
-        <v>2741.5374310000002</v>
-      </c>
-      <c r="K19" s="5">
-        <v>9701</v>
-      </c>
-      <c r="L19" s="5">
-        <v>83964</v>
-      </c>
-      <c r="M19" s="5">
-        <v>1604</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O19" s="5">
-        <v>205</v>
-      </c>
-      <c r="P19" s="5">
-        <v>8400</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="14">
-        <v>8306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="3">
-        <v>4836</v>
-      </c>
-      <c r="C20" s="5">
-        <v>39440</v>
-      </c>
-      <c r="D20" s="5">
-        <v>3599</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="5">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="G20" s="5">
-        <v>7505</v>
+        <v>9227</v>
       </c>
       <c r="H20" s="5">
-        <v>552</v>
+        <v>981</v>
       </c>
       <c r="I20" s="5">
-        <v>7987.6235139999999</v>
+        <v>2741.5374310000002</v>
+      </c>
+      <c r="J20" s="5">
+        <v>9701</v>
       </c>
       <c r="K20" s="5">
-        <v>5378</v>
+        <v>83964</v>
       </c>
       <c r="L20" s="5">
-        <v>45607</v>
+        <v>1604</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="N20" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="N20" s="5">
+        <v>205</v>
+      </c>
       <c r="O20" s="5">
-        <v>48</v>
-      </c>
-      <c r="P20" s="5">
-        <v>8850</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>527</v>
-      </c>
-      <c r="R20" s="14">
-        <v>7779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8400</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>8306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3">
-        <v>6584</v>
+        <v>4836</v>
       </c>
       <c r="C21" s="5">
-        <v>15688</v>
+        <v>39440</v>
       </c>
       <c r="D21" s="5">
-        <v>4</v>
+        <v>3599</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F21" s="5">
+        <v>22</v>
+      </c>
+      <c r="G21" s="5">
+        <v>7505</v>
+      </c>
+      <c r="H21" s="5">
+        <v>552</v>
+      </c>
+      <c r="I21" s="5">
+        <v>7987.6235139999999</v>
+      </c>
+      <c r="J21" s="5">
+        <v>5378</v>
+      </c>
+      <c r="K21" s="5">
+        <v>45607</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="5">
+        <v>48</v>
+      </c>
+      <c r="O21" s="5">
+        <v>8850</v>
+      </c>
+      <c r="P21" s="5">
+        <v>527</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>7779</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6584</v>
+      </c>
+      <c r="C22" s="5">
+        <v>15688</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5">
         <v>60</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G22" s="5">
         <v>7172</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H22" s="5">
         <v>380</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="5">
+      <c r="J22" s="5">
         <v>6618</v>
       </c>
-      <c r="L21" s="5">
+      <c r="K22" s="5">
         <v>18493</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="M22" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="O21" s="5">
-        <v>96</v>
-      </c>
-      <c r="P21" s="5">
-        <v>8213</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>512</v>
-      </c>
-      <c r="R21" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5896</v>
-      </c>
-      <c r="C22" s="5">
-        <v>36004</v>
-      </c>
-      <c r="D22" s="5">
-        <v>23450</v>
-      </c>
-      <c r="E22" s="5">
-        <v>340</v>
-      </c>
-      <c r="F22" s="5">
-        <v>40</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1956</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1204</v>
-      </c>
-      <c r="I22" s="5">
-        <v>10752</v>
-      </c>
-      <c r="K22" s="5">
-        <v>3758</v>
-      </c>
-      <c r="L22" s="5">
-        <v>34645</v>
-      </c>
-      <c r="M22" s="5">
-        <v>21963</v>
       </c>
       <c r="N22" s="5">
         <v>96</v>
       </c>
       <c r="O22" s="5">
+        <v>8213</v>
+      </c>
+      <c r="P22" s="5">
+        <v>512</v>
+      </c>
+      <c r="Q22" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5896</v>
+      </c>
+      <c r="C23" s="5">
+        <v>36004</v>
+      </c>
+      <c r="D23" s="5">
+        <v>23450</v>
+      </c>
+      <c r="E23" s="5">
+        <v>340</v>
+      </c>
+      <c r="F23" s="5">
+        <v>40</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1956</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1204</v>
+      </c>
+      <c r="I23" s="5">
+        <v>10752</v>
+      </c>
+      <c r="J23" s="5">
+        <v>3758</v>
+      </c>
+      <c r="K23" s="5">
+        <v>34645</v>
+      </c>
+      <c r="L23" s="5">
+        <v>21963</v>
+      </c>
+      <c r="M23" s="5">
+        <v>96</v>
+      </c>
+      <c r="N23" s="5">
         <v>29</v>
       </c>
-      <c r="P22" s="5">
+      <c r="O23" s="5">
         <v>1694</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="P23" s="5">
         <v>989</v>
       </c>
-      <c r="R22" s="14">
+      <c r="Q23" s="14">
         <v>8986</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B24" s="16">
         <v>4421</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C24" s="17">
         <v>19463</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <v>6260</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>54</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>2175</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H24" s="17">
         <v>1476</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I24" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="17">
+      <c r="J24" s="17">
         <v>2836</v>
       </c>
-      <c r="L23" s="17">
+      <c r="K24" s="17">
         <v>14805</v>
       </c>
-      <c r="M23" s="17">
+      <c r="L24" s="17">
         <v>5187</v>
       </c>
-      <c r="N23" s="17">
+      <c r="M24" s="17">
         <v>15</v>
       </c>
-      <c r="O23" s="17">
+      <c r="N24" s="17">
         <v>30</v>
       </c>
-      <c r="P23" s="17">
+      <c r="O24" s="17">
         <v>1996</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="P24" s="17">
         <v>1653</v>
       </c>
-      <c r="R23" s="20">
+      <c r="Q24" s="19">
         <v>3414</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A3:A23">
+  <conditionalFormatting sqref="A4:A24">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!="Jadranska Hrvatska"</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="podaci" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,9 +539,9 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Dobro" xfId="2" builtinId="26"/>
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Provjera ćelije" xfId="1" builtinId="23"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -565,7 +565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -607,7 +607,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,7 +642,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -854,31 +854,31 @@
   <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
@@ -886,7 +886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>40</v>
       </c>
@@ -936,7 +936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -989,7 +989,7 @@
         <v>418443</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -1044,7 +1044,7 @@
       <c r="AD4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>18077</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>42162</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>10410</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>9765</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>8078</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>10171</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>76671</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>25</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>24557</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>26</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>28</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>7779</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>30</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>34</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>8986</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>35</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>Republika Hrvatska</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Vocnjaci</t>
+  </si>
+  <si>
+    <t>Zupanija</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -853,6 +856,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>38</v>
       </c>
@@ -1538,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1554,6 +1560,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>38</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>Republika Hrvatska</t>
   </si>
@@ -35,18 +35,6 @@
     <t>Karlovačka</t>
   </si>
   <si>
-    <t>(27 142)</t>
-  </si>
-  <si>
-    <t>((170 872))</t>
-  </si>
-  <si>
-    <t>((26 621))</t>
-  </si>
-  <si>
-    <t>((92 891))</t>
-  </si>
-  <si>
     <t>Varaždinska</t>
   </si>
   <si>
@@ -59,12 +47,6 @@
     <t>Primorsko-goranska</t>
   </si>
   <si>
-    <t>((60))</t>
-  </si>
-  <si>
-    <t>(252)</t>
-  </si>
-  <si>
     <t>Ličko-senjska</t>
   </si>
   <si>
@@ -77,9 +59,6 @@
     <t>Brodsko-posavska</t>
   </si>
   <si>
-    <t>((1 973))</t>
-  </si>
-  <si>
     <t>Zadarska</t>
   </si>
   <si>
@@ -89,48 +68,24 @@
     <t>Šibensko-kninska</t>
   </si>
   <si>
-    <t>((298))</t>
-  </si>
-  <si>
     <t>Vukovarsko-srijemska</t>
   </si>
   <si>
     <t>Splitsko-dalmatinska</t>
   </si>
   <si>
-    <t>(1 154)</t>
-  </si>
-  <si>
     <t>Istarska</t>
   </si>
   <si>
-    <t>(6 651)</t>
-  </si>
-  <si>
     <t>Dubrovačko-neretvanska</t>
   </si>
   <si>
-    <t>(1 199)</t>
-  </si>
-  <si>
-    <t>((162))</t>
-  </si>
-  <si>
-    <t>(911)</t>
-  </si>
-  <si>
     <t>Međimurska</t>
   </si>
   <si>
     <t>Grad Zagreb</t>
   </si>
   <si>
-    <t>((27))</t>
-  </si>
-  <si>
-    <t>(3 679)</t>
-  </si>
-  <si>
     <t>Broj poljoprivrednih gospodarstava</t>
   </si>
   <si>
@@ -156,6 +111,33 @@
   </si>
   <si>
     <t>Zupanija</t>
+  </si>
+  <si>
+    <t>170 872</t>
+  </si>
+  <si>
+    <t>26 621</t>
+  </si>
+  <si>
+    <t>6 65</t>
+  </si>
+  <si>
+    <t>1 154</t>
+  </si>
+  <si>
+    <t>92 891</t>
+  </si>
+  <si>
+    <t>1 973</t>
+  </si>
+  <si>
+    <t>27 142</t>
+  </si>
+  <si>
+    <t>1 199</t>
+  </si>
+  <si>
+    <t>3 679</t>
   </si>
 </sst>
 </file>
@@ -832,7 +814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -857,31 +839,31 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
@@ -1033,12 +1015,12 @@
         <v>965</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>8844</v>
@@ -1067,7 +1049,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>10688</v>
@@ -1096,7 +1078,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>12118</v>
@@ -1125,7 +1107,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>2418</v>
@@ -1154,7 +1136,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>3792</v>
@@ -1183,7 +1165,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>7080</v>
@@ -1212,7 +1194,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>5139</v>
@@ -1241,7 +1223,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>7137</v>
@@ -1253,7 +1235,7 @@
         <v>41454</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F14" s="5">
         <v>131</v>
@@ -1270,7 +1252,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>6176</v>
@@ -1299,7 +1281,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>12078</v>
@@ -1328,7 +1310,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>4248</v>
@@ -1336,8 +1318,8 @@
       <c r="C17" s="5">
         <v>73757</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>24</v>
+      <c r="D17" s="5">
+        <v>298</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>2</v>
@@ -1357,7 +1339,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>7122</v>
@@ -1386,7 +1368,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>8950</v>
@@ -1415,7 +1397,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>4836</v>
@@ -1444,7 +1426,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>6584</v>
@@ -1468,12 +1450,12 @@
         <v>380</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>5896</v>
@@ -1502,7 +1484,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B23" s="15">
         <v>4421</v>
@@ -1516,8 +1498,8 @@
       <c r="E23" s="16">
         <v>54</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>36</v>
+      <c r="F23" s="16">
+        <v>27</v>
       </c>
       <c r="G23" s="16">
         <v>2175</v>
@@ -1526,7 +1508,7 @@
         <v>1476</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1544,7 +1526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1561,31 +1545,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1712,10 +1696,10 @@
         <v>6601</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>2</v>
@@ -1730,12 +1714,12 @@
         <v>1289</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="11">
         <v>7360</v>
@@ -1764,7 +1748,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>8628</v>
@@ -1793,7 +1777,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>9512</v>
@@ -1822,7 +1806,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>2376</v>
@@ -1830,8 +1814,8 @@
       <c r="C10" s="5">
         <v>15985</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>14</v>
+      <c r="D10" s="5">
+        <v>60</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
@@ -1842,8 +1826,8 @@
       <c r="G10" s="5">
         <v>1191</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>15</v>
+      <c r="H10" s="9">
+        <v>252</v>
       </c>
       <c r="I10" s="13">
         <v>1393</v>
@@ -1851,7 +1835,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>4277</v>
@@ -1880,7 +1864,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>5718</v>
@@ -1909,7 +1893,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>4383</v>
@@ -1938,7 +1922,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5">
         <v>6085</v>
@@ -1967,7 +1951,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5">
         <v>5943</v>
@@ -1996,7 +1980,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>9282</v>
@@ -2025,7 +2009,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>4661</v>
@@ -2054,7 +2038,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>6087</v>
@@ -2083,7 +2067,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>9701</v>
@@ -2104,7 +2088,7 @@
         <v>8400</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I19" s="13">
         <v>8306</v>
@@ -2112,7 +2096,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>5378</v>
@@ -2121,7 +2105,7 @@
         <v>45607</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>2</v>
@@ -2141,7 +2125,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>6618</v>
@@ -2149,8 +2133,8 @@
       <c r="C21" s="5">
         <v>18493</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>32</v>
+      <c r="D21" s="5">
+        <v>162</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>2</v>
@@ -2164,13 +2148,13 @@
       <c r="H21" s="5">
         <v>512</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>33</v>
+      <c r="I21" s="14">
+        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>3758</v>
@@ -2199,7 +2183,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B23" s="16">
         <v>2836</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
-    <sheet name="2016" sheetId="2" r:id="rId2"/>
+    <sheet name="2014" sheetId="3" r:id="rId2"/>
+    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="31">
   <si>
     <t>Republika Hrvatska</t>
   </si>
   <si>
     <t>Zagrebačka</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -</t>
   </si>
   <si>
     <t>Krapinsko-zagorska</t>
@@ -110,40 +109,13 @@
     <t>Vocnjaci</t>
   </si>
   <si>
-    <t>Zupanija</t>
-  </si>
-  <si>
-    <t>170 872</t>
-  </si>
-  <si>
-    <t>26 621</t>
-  </si>
-  <si>
-    <t>6 65</t>
-  </si>
-  <si>
-    <t>1 154</t>
-  </si>
-  <si>
-    <t>92 891</t>
-  </si>
-  <si>
     <t>1 973</t>
-  </si>
-  <si>
-    <t>27 142</t>
-  </si>
-  <si>
-    <t>1 199</t>
-  </si>
-  <si>
-    <t>3 679</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,11 +465,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Dobro" xfId="2" builtinId="26"/>
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Provjera ćelije" xfId="1" builtinId="23"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -526,7 +512,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -568,7 +554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,7 +589,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -814,88 +800,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
+        <f>SUM(B3:B23)</f>
         <v>157440</v>
       </c>
       <c r="C2" s="4">
+        <f>SUM(C3:C23)</f>
         <v>1571200</v>
       </c>
       <c r="D2" s="4">
+        <f>SUM(D3:D23)</f>
         <v>590940</v>
       </c>
       <c r="E2" s="4">
-        <v>20250</v>
+        <f>SUM(E3:E23)</f>
+        <v>18277</v>
       </c>
       <c r="F2" s="4">
+        <f>SUM(F3:F23)</f>
         <v>1760</v>
       </c>
       <c r="G2" s="4">
+        <f>SUM(G3:G23)</f>
         <v>72940</v>
       </c>
       <c r="H2" s="4">
+        <f>SUM(H3:H23)</f>
         <v>27350</v>
       </c>
       <c r="I2" s="19">
-        <v>453200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+        <f>SUM(I3:I23)</f>
+        <v>453197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -908,8 +901,8 @@
       <c r="D3" s="5">
         <v>43376</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
+      <c r="E3" s="5">
+        <v>0</v>
       </c>
       <c r="F3" s="5">
         <v>179</v>
@@ -924,9 +917,9 @@
         <v>38884</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>6052</v>
@@ -937,8 +930,8 @@
       <c r="D4" s="5">
         <v>7362</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
+      <c r="E4" s="5">
+        <v>0</v>
       </c>
       <c r="F4" s="5">
         <v>63</v>
@@ -955,9 +948,9 @@
       <c r="AD4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>11396</v>
@@ -968,8 +961,8 @@
       <c r="D5" s="5">
         <v>30607</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
+      <c r="E5" s="5">
+        <v>0</v>
       </c>
       <c r="F5" s="5">
         <v>124</v>
@@ -989,9 +982,9 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>7604</v>
@@ -1002,8 +995,8 @@
       <c r="D6" s="5">
         <v>8784</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>2</v>
+      <c r="E6" s="5">
+        <v>0</v>
       </c>
       <c r="F6" s="5">
         <v>43</v>
@@ -1014,13 +1007,13 @@
       <c r="H6" s="5">
         <v>965</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="I6" s="14">
+        <v>27142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>8844</v>
@@ -1047,9 +1040,9 @@
         <v>10290</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>10688</v>
@@ -1076,9 +1069,9 @@
         <v>68228</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>12118</v>
@@ -1089,8 +1082,8 @@
       <c r="D9" s="5">
         <v>60340</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>2</v>
+      <c r="E9" s="5">
+        <v>0</v>
       </c>
       <c r="F9" s="5">
         <v>140</v>
@@ -1105,9 +1098,9 @@
         <v>66995</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>2418</v>
@@ -1118,8 +1111,8 @@
       <c r="D10" s="5">
         <v>559</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
+      <c r="E10" s="5">
+        <v>0</v>
       </c>
       <c r="F10" s="5">
         <v>17</v>
@@ -1131,12 +1124,12 @@
         <v>181</v>
       </c>
       <c r="I10" s="13">
-        <v>907.771612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>3792</v>
@@ -1147,8 +1140,8 @@
       <c r="D11" s="5">
         <v>2883</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
+      <c r="E11" s="5">
+        <v>0</v>
       </c>
       <c r="F11" s="5">
         <v>41</v>
@@ -1163,9 +1156,9 @@
         <v>16131</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>7080</v>
@@ -1192,9 +1185,9 @@
         <v>16368</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>5139</v>
@@ -1221,9 +1214,9 @@
         <v>11278</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>7137</v>
@@ -1235,7 +1228,7 @@
         <v>41454</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F14" s="5">
         <v>131</v>
@@ -1250,9 +1243,9 @@
         <v>15427</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>6176</v>
@@ -1263,8 +1256,8 @@
       <c r="D15" s="5">
         <v>1634</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>2</v>
+      <c r="E15" s="5">
+        <v>0</v>
       </c>
       <c r="F15" s="5">
         <v>43</v>
@@ -1276,12 +1269,12 @@
         <v>1264</v>
       </c>
       <c r="I15" s="13">
-        <v>3684.9042810000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>12078</v>
@@ -1308,9 +1301,9 @@
         <v>72027</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>4248</v>
@@ -1321,8 +1314,8 @@
       <c r="D17" s="5">
         <v>298</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>2</v>
+      <c r="E17" s="5">
+        <v>0</v>
       </c>
       <c r="F17" s="5">
         <v>27</v>
@@ -1334,12 +1327,12 @@
         <v>243</v>
       </c>
       <c r="I17" s="13">
-        <v>1353.1069500000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>7122</v>
@@ -1366,9 +1359,9 @@
         <v>25618</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>8950</v>
@@ -1379,8 +1372,8 @@
       <c r="D19" s="5">
         <v>1883</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>2</v>
+      <c r="E19" s="5">
+        <v>0</v>
       </c>
       <c r="F19" s="5">
         <v>96</v>
@@ -1392,12 +1385,12 @@
         <v>981</v>
       </c>
       <c r="I19" s="13">
-        <v>2741.5374310000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>4836</v>
@@ -1408,8 +1401,8 @@
       <c r="D20" s="5">
         <v>3599</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>2</v>
+      <c r="E20" s="5">
+        <v>0</v>
       </c>
       <c r="F20" s="5">
         <v>22</v>
@@ -1421,12 +1414,12 @@
         <v>552</v>
       </c>
       <c r="I20" s="13">
-        <v>7987.6235139999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>6584</v>
@@ -1437,8 +1430,8 @@
       <c r="D21" s="5">
         <v>4</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>2</v>
+      <c r="E21" s="5">
+        <v>0</v>
       </c>
       <c r="F21" s="5">
         <v>60</v>
@@ -1449,13 +1442,13 @@
       <c r="H21" s="5">
         <v>380</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="14">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>5896</v>
@@ -1482,9 +1475,9 @@
         <v>10752</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="15">
         <v>4421</v>
@@ -1507,13 +1500,13 @@
       <c r="H23" s="16">
         <v>1476</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>40</v>
+      <c r="I23" s="17">
+        <v>3679</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A23">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>#REF!="Jadranska Hrvatska"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1526,688 +1519,1396 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
-        <v>134459</v>
+      <c r="B2" s="2">
+        <f>SUM(B3:B23)</f>
+        <v>149176</v>
       </c>
       <c r="C2" s="4">
-        <v>1562983</v>
+        <f>SUM(C3:C23)</f>
+        <v>1543399</v>
       </c>
       <c r="D2" s="4">
-        <v>533085</v>
+        <f>SUM(D3:D23)</f>
+        <v>578021</v>
       </c>
       <c r="E2" s="4">
-        <v>15072</v>
+        <f>SUM(E3:E23)</f>
+        <v>19711</v>
       </c>
       <c r="F2" s="4">
-        <v>1848</v>
+        <f>SUM(F3:F23)</f>
+        <v>1689</v>
       </c>
       <c r="G2" s="4">
-        <v>71965</v>
+        <f>SUM(G3:G23)</f>
+        <v>72248</v>
       </c>
       <c r="H2" s="4">
-        <v>27780</v>
-      </c>
-      <c r="I2" s="12">
-        <v>418443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <f>SUM(H3:H23)</f>
+        <v>27507</v>
+      </c>
+      <c r="I2" s="19">
+        <f>SUM(I3:I23)</f>
+        <v>442132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>11214</v>
+      <c r="B3" s="3">
+        <v>14104</v>
       </c>
       <c r="C3" s="5">
-        <v>61461</v>
+        <v>91083</v>
       </c>
       <c r="D3" s="5">
+        <v>42945</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>172</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2785</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1320</v>
+      </c>
+      <c r="I3" s="13">
+        <v>38004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5839</v>
+      </c>
+      <c r="C4" s="5">
+        <v>19735</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7243</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>61</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1514</v>
+      </c>
+      <c r="H4" s="5">
+        <v>581</v>
+      </c>
+      <c r="I4" s="13">
+        <v>14767</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10859</v>
+      </c>
+      <c r="C5" s="5">
+        <v>80393</v>
+      </c>
+      <c r="D5" s="5">
+        <v>29845</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>121</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2746</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2285</v>
+      </c>
+      <c r="I5" s="13">
+        <v>36843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7295</v>
+      </c>
+      <c r="C6" s="5">
+        <v>63903</v>
+      </c>
+      <c r="D6" s="5">
+        <v>8424</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>40</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1142</v>
+      </c>
+      <c r="H6" s="5">
+        <v>969</v>
+      </c>
+      <c r="I6" s="14">
+        <v>26854</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8395</v>
+      </c>
+      <c r="C7" s="5">
+        <v>34930</v>
+      </c>
+      <c r="D7" s="5">
+        <v>21984</v>
+      </c>
+      <c r="E7" s="5">
+        <v>53</v>
+      </c>
+      <c r="F7" s="5">
+        <v>149</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1645</v>
+      </c>
+      <c r="H7" s="5">
+        <v>780</v>
+      </c>
+      <c r="I7" s="13">
+        <v>9845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9948</v>
+      </c>
+      <c r="C8" s="5">
+        <v>79304</v>
+      </c>
+      <c r="D8" s="5">
+        <v>51282</v>
+      </c>
+      <c r="E8" s="5">
+        <v>127</v>
+      </c>
+      <c r="F8" s="5">
+        <v>105</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1868</v>
+      </c>
+      <c r="H8" s="5">
+        <v>900</v>
+      </c>
+      <c r="I8" s="13">
+        <v>66934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>11854</v>
+      </c>
+      <c r="C9" s="5">
+        <v>99443</v>
+      </c>
+      <c r="D9" s="5">
+        <v>58294</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>134</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2347</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1840</v>
+      </c>
+      <c r="I9" s="13">
+        <v>63956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2259</v>
+      </c>
+      <c r="C10" s="5">
+        <v>70385</v>
+      </c>
+      <c r="D10" s="5">
+        <v>510</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>14</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1236</v>
+      </c>
+      <c r="H10" s="5">
+        <v>188</v>
+      </c>
+      <c r="I10" s="13">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3345</v>
+      </c>
+      <c r="C11" s="5">
+        <v>117932</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2784</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>39</v>
+      </c>
+      <c r="G11" s="5">
+        <v>587</v>
+      </c>
+      <c r="H11" s="5">
+        <v>410</v>
+      </c>
+      <c r="I11" s="13">
+        <v>15684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6843</v>
+      </c>
+      <c r="C12" s="5">
+        <v>91845</v>
+      </c>
+      <c r="D12" s="5">
+        <v>47820</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1699</v>
+      </c>
+      <c r="F12" s="5">
+        <v>71</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2597</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1963</v>
+      </c>
+      <c r="I12" s="13">
+        <v>15976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4829</v>
+      </c>
+      <c r="C13" s="5">
+        <v>49284</v>
+      </c>
+      <c r="D13" s="5">
+        <v>24485</v>
+      </c>
+      <c r="E13" s="5">
+        <v>589</v>
+      </c>
+      <c r="F13" s="5">
+        <v>63</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3204</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1675</v>
+      </c>
+      <c r="I13" s="13">
+        <v>10984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6938</v>
+      </c>
+      <c r="C14" s="5">
+        <v>71849</v>
+      </c>
+      <c r="D14" s="5">
+        <v>40928</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1848</v>
+      </c>
+      <c r="F14" s="5">
+        <v>128</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2435</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2235</v>
+      </c>
+      <c r="I14" s="13">
+        <v>15094</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5836</v>
+      </c>
+      <c r="C15" s="5">
+        <v>82945</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1592</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>35</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5589</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1285</v>
+      </c>
+      <c r="I15" s="13">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>11267</v>
+      </c>
+      <c r="C16" s="5">
+        <v>217804</v>
+      </c>
+      <c r="D16" s="5">
+        <v>127935</v>
+      </c>
+      <c r="E16" s="5">
+        <v>8104</v>
+      </c>
+      <c r="F16" s="5">
+        <v>165</v>
+      </c>
+      <c r="G16" s="5">
+        <v>6975</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4470</v>
+      </c>
+      <c r="I16" s="13">
+        <v>71943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4001</v>
+      </c>
+      <c r="C17" s="5">
+        <v>73092</v>
+      </c>
+      <c r="D17" s="5">
+        <v>279</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>26</v>
+      </c>
+      <c r="G17" s="5">
+        <v>4478</v>
+      </c>
+      <c r="H17" s="5">
+        <v>243</v>
+      </c>
+      <c r="I17" s="13">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6938</v>
+      </c>
+      <c r="C18" s="5">
+        <v>128394</v>
+      </c>
+      <c r="D18" s="5">
+        <v>77935</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6932</v>
+      </c>
+      <c r="F18" s="5">
+        <v>133</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3223</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1750</v>
+      </c>
+      <c r="I18" s="13">
+        <v>24892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8496</v>
+      </c>
+      <c r="C19" s="5">
+        <v>63059</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1743</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>91</v>
+      </c>
+      <c r="G19" s="5">
+        <v>9195</v>
+      </c>
+      <c r="H19" s="5">
+        <v>995</v>
+      </c>
+      <c r="I19" s="13">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4356</v>
+      </c>
+      <c r="C20" s="5">
+        <v>38943</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3485</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>20</v>
+      </c>
+      <c r="G20" s="5">
+        <v>7477</v>
+      </c>
+      <c r="H20" s="5">
+        <v>552</v>
+      </c>
+      <c r="I20" s="13">
+        <v>7385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6184</v>
+      </c>
+      <c r="C21" s="5">
+        <v>14928</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>58</v>
+      </c>
+      <c r="G21" s="5">
+        <v>7156</v>
+      </c>
+      <c r="H21" s="5">
+        <v>395</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5395</v>
+      </c>
+      <c r="C22" s="5">
+        <v>34899</v>
+      </c>
+      <c r="D22" s="5">
+        <v>22567</v>
+      </c>
+      <c r="E22" s="5">
+        <v>316</v>
+      </c>
+      <c r="F22" s="5">
+        <v>37</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1903</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1203</v>
+      </c>
+      <c r="I22" s="13">
+        <v>10294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15">
+        <v>4195</v>
+      </c>
+      <c r="C23" s="16">
+        <v>19249</v>
+      </c>
+      <c r="D23" s="16">
+        <v>5938</v>
+      </c>
+      <c r="E23" s="16">
+        <v>43</v>
+      </c>
+      <c r="F23" s="16">
+        <v>27</v>
+      </c>
+      <c r="G23" s="16">
+        <v>2146</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1468</v>
+      </c>
+      <c r="I23" s="17">
+        <v>3395</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:A23">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>#REF!="Jadranska Hrvatska"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <f>SUM(B3:B23)</f>
+        <v>144478</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM(B3:B23)</f>
+        <v>144478</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUM(D3:D23)</f>
+        <v>483672</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM(E3:E23)</f>
+        <v>17804</v>
+      </c>
+      <c r="F2" s="4">
+        <f>SUM(F3:F23)</f>
+        <v>1806</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM(G3:G23)</f>
+        <v>71943</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM(H3:H23)</f>
+        <v>27820</v>
+      </c>
+      <c r="I2" s="19">
+        <f>SUM(I3:I23)</f>
+        <v>437381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>13055</v>
+      </c>
+      <c r="C3" s="5">
+        <v>83956</v>
+      </c>
+      <c r="D3" s="5">
+        <v>38935</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>167</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2603</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1328</v>
+      </c>
+      <c r="I3" s="13">
+        <v>31053</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6395</v>
+      </c>
+      <c r="C4" s="5">
+        <v>20049</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7749</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>75</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1793</v>
+      </c>
+      <c r="H4" s="5">
+        <v>678</v>
+      </c>
+      <c r="I4" s="13">
+        <v>11546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8945</v>
+      </c>
+      <c r="C5" s="5">
+        <v>76935</v>
+      </c>
+      <c r="D5" s="5">
+        <v>27835</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>107</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2395</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1935</v>
+      </c>
+      <c r="I5" s="13">
+        <v>28347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6985</v>
+      </c>
+      <c r="C6" s="5">
+        <v>120589</v>
+      </c>
+      <c r="D6" s="5">
+        <v>14575</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>64</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1385</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1184</v>
+      </c>
+      <c r="I6" s="14">
+        <v>53678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7894</v>
+      </c>
+      <c r="C7" s="5">
         <v>33546</v>
       </c>
-      <c r="E3" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="5">
-        <v>160</v>
-      </c>
-      <c r="G3" s="5">
-        <v>2463</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="D7" s="5">
+        <v>21156</v>
+      </c>
+      <c r="E7" s="5">
+        <v>44</v>
+      </c>
+      <c r="F7" s="5">
+        <v>129</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1602</v>
+      </c>
+      <c r="H7" s="5">
+        <v>746</v>
+      </c>
+      <c r="I7" s="13">
+        <v>8294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9784</v>
+      </c>
+      <c r="C8" s="5">
+        <v>73054</v>
+      </c>
+      <c r="D8" s="5">
+        <v>47964</v>
+      </c>
+      <c r="E8" s="5">
+        <v>84</v>
+      </c>
+      <c r="F8" s="5">
+        <v>106</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1868</v>
+      </c>
+      <c r="H8" s="5">
+        <v>930</v>
+      </c>
+      <c r="I8" s="13">
+        <v>60924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10845</v>
+      </c>
+      <c r="C9" s="5">
+        <v>91845</v>
+      </c>
+      <c r="D9" s="5">
+        <v>52547</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>117</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2360</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1935</v>
+      </c>
+      <c r="I9" s="13">
+        <v>58924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2309</v>
+      </c>
+      <c r="C10" s="5">
+        <v>59235</v>
+      </c>
+      <c r="D10" s="5">
+        <v>389</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>18</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1200</v>
+      </c>
+      <c r="H10" s="5">
+        <v>210</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3895</v>
+      </c>
+      <c r="C11" s="5">
+        <v>121945</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3256</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>41</v>
+      </c>
+      <c r="G11" s="5">
+        <v>595</v>
+      </c>
+      <c r="H11" s="5">
+        <v>423</v>
+      </c>
+      <c r="I11" s="13">
+        <v>13856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6295</v>
+      </c>
+      <c r="C12" s="5">
+        <v>86730</v>
+      </c>
+      <c r="D12" s="5">
+        <v>45367</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1094</v>
+      </c>
+      <c r="F12" s="5">
+        <v>79</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2492</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1784</v>
+      </c>
+      <c r="I12" s="13">
+        <v>12843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4595</v>
+      </c>
+      <c r="C13" s="5">
+        <v>46934</v>
+      </c>
+      <c r="D13" s="5">
+        <v>22647</v>
+      </c>
+      <c r="E13" s="5">
+        <v>605</v>
+      </c>
+      <c r="F13" s="5">
+        <v>60</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3001</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1583</v>
+      </c>
+      <c r="I13" s="13">
+        <v>9872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>6495</v>
+      </c>
+      <c r="C14" s="5">
+        <v>71094</v>
+      </c>
+      <c r="D14" s="5">
+        <v>39256</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1356</v>
+      </c>
+      <c r="F14" s="5">
+        <v>128</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2440</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2278</v>
+      </c>
+      <c r="I14" s="13">
+        <v>13835</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5902</v>
+      </c>
+      <c r="C15" s="5">
+        <v>82945</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1368</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>94</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5650</v>
+      </c>
+      <c r="H15" s="5">
         <v>1335</v>
       </c>
-      <c r="I3" s="13">
-        <v>26348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>7334</v>
-      </c>
-      <c r="C4" s="5">
-        <v>20642</v>
-      </c>
-      <c r="D4" s="5">
-        <v>9084</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>94</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2107</v>
-      </c>
-      <c r="H4" s="5">
-        <v>881</v>
-      </c>
-      <c r="I4" s="13">
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>6707</v>
-      </c>
-      <c r="C5" s="5">
-        <v>63630</v>
-      </c>
-      <c r="D5" s="5">
-        <v>24426</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>87</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1999</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1680</v>
-      </c>
-      <c r="I5" s="13">
-        <v>18077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10">
-        <v>6601</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="I15" s="13">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10894</v>
+      </c>
+      <c r="C16" s="5">
+        <v>219546</v>
+      </c>
+      <c r="D16" s="5">
+        <v>121436</v>
+      </c>
+      <c r="E16" s="5">
+        <v>7824</v>
+      </c>
+      <c r="F16" s="5">
+        <v>135</v>
+      </c>
+      <c r="G16" s="5">
+        <v>7039</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4634</v>
+      </c>
+      <c r="I16" s="13">
+        <v>73954</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4453</v>
+      </c>
+      <c r="C17" s="5">
+        <v>81945</v>
+      </c>
+      <c r="D17" s="5">
+        <v>404</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="G17" s="5">
+        <v>4105</v>
+      </c>
+      <c r="H17" s="5">
+        <v>438</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>6584</v>
+      </c>
+      <c r="C18" s="5">
+        <v>129872</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7109</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6584</v>
+      </c>
+      <c r="F18" s="5">
+        <v>121</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3223</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1690</v>
+      </c>
+      <c r="I18" s="13">
+        <v>24892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>9458</v>
+      </c>
+      <c r="C19" s="5">
+        <v>73953</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1663</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>167</v>
+      </c>
+      <c r="G19" s="5">
+        <v>8832</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1050</v>
+      </c>
+      <c r="I19" s="13">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4892</v>
+      </c>
+      <c r="C20" s="5">
+        <v>41856</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2093</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
         <v>33</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>71</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1562</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1289</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>7360</v>
-      </c>
-      <c r="C7" s="5">
-        <v>32309</v>
-      </c>
-      <c r="D7" s="5">
-        <v>20854</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="G20" s="5">
+        <v>7824</v>
+      </c>
+      <c r="H20" s="5">
+        <v>537</v>
+      </c>
+      <c r="I20" s="13">
+        <v>7593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6395</v>
+      </c>
+      <c r="C21" s="5">
+        <v>16893</v>
+      </c>
+      <c r="D21" s="5">
+        <v>326</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>70</v>
+      </c>
+      <c r="G21" s="5">
+        <v>7724</v>
+      </c>
+      <c r="H21" s="5">
+        <v>445</v>
+      </c>
+      <c r="I21" s="14">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="5">
-        <v>107</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1551</v>
-      </c>
-      <c r="H7" s="5">
-        <v>717</v>
-      </c>
-      <c r="I7" s="13">
-        <v>6305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>8628</v>
-      </c>
-      <c r="C8" s="5">
-        <v>69915</v>
-      </c>
-      <c r="D8" s="5">
-        <v>46697</v>
-      </c>
-      <c r="E8" s="5">
-        <v>36</v>
-      </c>
-      <c r="F8" s="5">
-        <v>108</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1860</v>
-      </c>
-      <c r="H8" s="5">
-        <v>970</v>
-      </c>
-      <c r="I8" s="13">
-        <v>42162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>9512</v>
-      </c>
-      <c r="C9" s="5">
-        <v>85822</v>
-      </c>
-      <c r="D9" s="5">
-        <v>48742</v>
-      </c>
-      <c r="E9" s="5">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5">
-        <v>96</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2370</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="B22" s="3">
+        <v>4783</v>
+      </c>
+      <c r="C22" s="5">
+        <v>34899</v>
+      </c>
+      <c r="D22" s="5">
+        <v>22004</v>
+      </c>
+      <c r="E22" s="5">
+        <v>178</v>
+      </c>
+      <c r="F22" s="5">
+        <v>35</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1793</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1113</v>
+      </c>
+      <c r="I22" s="13">
+        <v>9356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15">
+        <v>3625</v>
+      </c>
+      <c r="C23" s="16">
+        <v>16285</v>
+      </c>
+      <c r="D23" s="16">
+        <v>5593</v>
+      </c>
+      <c r="E23" s="16">
+        <v>31</v>
+      </c>
+      <c r="F23" s="16">
+        <v>28</v>
+      </c>
+      <c r="G23" s="16">
         <v>2019</v>
       </c>
-      <c r="I9" s="13">
-        <v>44498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2376</v>
-      </c>
-      <c r="C10" s="5">
-        <v>15985</v>
-      </c>
-      <c r="D10" s="5">
-        <v>60</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>21</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1191</v>
-      </c>
-      <c r="H10" s="9">
-        <v>252</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>4277</v>
-      </c>
-      <c r="C11" s="5">
-        <v>125589</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4381</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>56</v>
-      </c>
-      <c r="G11" s="5">
-        <v>615</v>
-      </c>
-      <c r="H11" s="5">
-        <v>435</v>
-      </c>
-      <c r="I11" s="13">
-        <v>10410</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>5718</v>
-      </c>
-      <c r="C12" s="5">
-        <v>83175</v>
-      </c>
-      <c r="D12" s="5">
-        <v>41739</v>
-      </c>
-      <c r="E12" s="5">
-        <v>576</v>
-      </c>
-      <c r="F12" s="5">
-        <v>93</v>
-      </c>
-      <c r="G12" s="5">
-        <v>2139</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1578</v>
-      </c>
-      <c r="I12" s="13">
-        <v>9765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>4383</v>
-      </c>
-      <c r="C13" s="5">
-        <v>44813</v>
-      </c>
-      <c r="D13" s="5">
-        <v>21978</v>
-      </c>
-      <c r="E13" s="5">
-        <v>654</v>
-      </c>
-      <c r="F13" s="5">
-        <v>50</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2892</v>
-      </c>
-      <c r="H13" s="5">
-        <v>1458</v>
-      </c>
-      <c r="I13" s="13">
-        <v>8078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>6085</v>
-      </c>
-      <c r="C14" s="5">
-        <v>70026</v>
-      </c>
-      <c r="D14" s="5">
-        <v>37162</v>
-      </c>
-      <c r="E14" s="5">
-        <v>425</v>
-      </c>
-      <c r="F14" s="5">
-        <v>126</v>
-      </c>
-      <c r="G14" s="5">
-        <v>2499</v>
-      </c>
-      <c r="H14" s="5">
-        <v>2302</v>
-      </c>
-      <c r="I14" s="13">
-        <v>10171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>5943</v>
-      </c>
-      <c r="C15" s="5">
-        <v>82981</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1283</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>123</v>
-      </c>
-      <c r="G15" s="5">
-        <v>5674</v>
-      </c>
-      <c r="H15" s="5">
-        <v>1465</v>
-      </c>
-      <c r="I15" s="13">
-        <v>4405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>9282</v>
-      </c>
-      <c r="C16" s="5">
-        <v>212713</v>
-      </c>
-      <c r="D16" s="5">
-        <v>112478</v>
-      </c>
-      <c r="E16" s="5">
-        <v>6995</v>
-      </c>
-      <c r="F16" s="5">
-        <v>94</v>
-      </c>
-      <c r="G16" s="5">
-        <v>7185</v>
-      </c>
-      <c r="H16" s="5">
-        <v>4748</v>
-      </c>
-      <c r="I16" s="13">
-        <v>76671</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>4661</v>
-      </c>
-      <c r="C17" s="5">
-        <v>94931</v>
-      </c>
-      <c r="D17" s="5">
-        <v>554</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="5">
-        <v>49</v>
-      </c>
-      <c r="G17" s="5">
-        <v>3483</v>
-      </c>
-      <c r="H17" s="5">
-        <v>232</v>
-      </c>
-      <c r="I17" s="13">
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>6087</v>
-      </c>
-      <c r="C18" s="5">
-        <v>130605</v>
-      </c>
-      <c r="D18" s="5">
-        <v>67912</v>
-      </c>
-      <c r="E18" s="5">
-        <v>6246</v>
-      </c>
-      <c r="F18" s="5">
-        <v>105</v>
-      </c>
-      <c r="G18" s="5">
-        <v>3222</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1584</v>
-      </c>
-      <c r="I18" s="13">
-        <v>24557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5">
-        <v>9701</v>
-      </c>
-      <c r="C19" s="5">
-        <v>83964</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1604</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5">
-        <v>205</v>
-      </c>
-      <c r="G19" s="5">
-        <v>8400</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="13">
-        <v>8306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5">
-        <v>5378</v>
-      </c>
-      <c r="C20" s="5">
-        <v>45607</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="5">
-        <v>48</v>
-      </c>
-      <c r="G20" s="5">
-        <v>8850</v>
-      </c>
-      <c r="H20" s="5">
-        <v>527</v>
-      </c>
-      <c r="I20" s="13">
-        <v>7779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>6618</v>
-      </c>
-      <c r="C21" s="5">
-        <v>18493</v>
-      </c>
-      <c r="D21" s="5">
-        <v>162</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5">
-        <v>96</v>
-      </c>
-      <c r="G21" s="5">
-        <v>8213</v>
-      </c>
-      <c r="H21" s="5">
-        <v>512</v>
-      </c>
-      <c r="I21" s="14">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5">
-        <v>3758</v>
-      </c>
-      <c r="C22" s="5">
-        <v>34645</v>
-      </c>
-      <c r="D22" s="5">
-        <v>21963</v>
-      </c>
-      <c r="E22" s="5">
-        <v>96</v>
-      </c>
-      <c r="F22" s="5">
-        <v>29</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1694</v>
-      </c>
-      <c r="H22" s="5">
-        <v>989</v>
-      </c>
-      <c r="I22" s="13">
-        <v>8986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="16">
-        <v>2836</v>
-      </c>
-      <c r="C23" s="16">
-        <v>14805</v>
-      </c>
-      <c r="D23" s="16">
-        <v>5187</v>
-      </c>
-      <c r="E23" s="16">
-        <v>15</v>
-      </c>
-      <c r="F23" s="16">
-        <v>30</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1996</v>
-      </c>
       <c r="H23" s="16">
-        <v>1653</v>
+        <v>1564</v>
       </c>
       <c r="I23" s="17">
-        <v>3414</v>
+        <v>3395</v>
       </c>
     </row>
   </sheetData>
@@ -2218,4 +2919,707 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>SUM(B3:B23)</f>
+        <v>134459</v>
+      </c>
+      <c r="C2" s="4">
+        <f>SUM(C3:C23)</f>
+        <v>1562983</v>
+      </c>
+      <c r="D2" s="4">
+        <f>SUM(D3:D23)</f>
+        <v>527098</v>
+      </c>
+      <c r="E2" s="4">
+        <f>SUM(E3:E23)</f>
+        <v>15071.5</v>
+      </c>
+      <c r="F2" s="4">
+        <f>SUM(F3:F23)</f>
+        <v>1848</v>
+      </c>
+      <c r="G2" s="4">
+        <f>SUM(G3:G23)</f>
+        <v>71965</v>
+      </c>
+      <c r="H2" s="4">
+        <f>SUM(H3:H23)</f>
+        <v>27780</v>
+      </c>
+      <c r="I2" s="12">
+        <f>SUM(I3:I23)</f>
+        <v>418443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>11214</v>
+      </c>
+      <c r="C3" s="5">
+        <v>61461</v>
+      </c>
+      <c r="D3" s="5">
+        <v>33546</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>160</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2463</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1335</v>
+      </c>
+      <c r="I3" s="13">
+        <v>26348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7334</v>
+      </c>
+      <c r="C4" s="5">
+        <v>20642</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9084</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>94</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2107</v>
+      </c>
+      <c r="H4" s="5">
+        <v>881</v>
+      </c>
+      <c r="I4" s="13">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6707</v>
+      </c>
+      <c r="C5" s="5">
+        <v>63630</v>
+      </c>
+      <c r="D5" s="5">
+        <v>24426</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>87</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1680</v>
+      </c>
+      <c r="I5" s="13">
+        <v>18077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>6601</v>
+      </c>
+      <c r="C6" s="5">
+        <v>170872</v>
+      </c>
+      <c r="D6" s="5">
+        <v>26621</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>71</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1562</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1289</v>
+      </c>
+      <c r="I6" s="14">
+        <v>92891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>7360</v>
+      </c>
+      <c r="C7" s="5">
+        <v>32309</v>
+      </c>
+      <c r="D7" s="5">
+        <v>20854</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5">
+        <v>107</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1551</v>
+      </c>
+      <c r="H7" s="5">
+        <v>717</v>
+      </c>
+      <c r="I7" s="13">
+        <v>6305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8628</v>
+      </c>
+      <c r="C8" s="5">
+        <v>69915</v>
+      </c>
+      <c r="D8" s="5">
+        <v>46697</v>
+      </c>
+      <c r="E8" s="5">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5">
+        <v>108</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1860</v>
+      </c>
+      <c r="H8" s="5">
+        <v>970</v>
+      </c>
+      <c r="I8" s="13">
+        <v>42162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>9512</v>
+      </c>
+      <c r="C9" s="5">
+        <v>85822</v>
+      </c>
+      <c r="D9" s="5">
+        <v>48742</v>
+      </c>
+      <c r="E9" s="5">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5">
+        <v>96</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2370</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2019</v>
+      </c>
+      <c r="I9" s="13">
+        <v>44498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2376</v>
+      </c>
+      <c r="C10" s="5">
+        <v>15985</v>
+      </c>
+      <c r="D10" s="5">
+        <v>60</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>21</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1191</v>
+      </c>
+      <c r="H10" s="9">
+        <v>252</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4277</v>
+      </c>
+      <c r="C11" s="5">
+        <v>125589</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4381</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>56</v>
+      </c>
+      <c r="G11" s="5">
+        <v>615</v>
+      </c>
+      <c r="H11" s="5">
+        <v>435</v>
+      </c>
+      <c r="I11" s="13">
+        <v>10410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5718</v>
+      </c>
+      <c r="C12" s="5">
+        <v>83175</v>
+      </c>
+      <c r="D12" s="5">
+        <v>41739</v>
+      </c>
+      <c r="E12" s="5">
+        <v>576</v>
+      </c>
+      <c r="F12" s="5">
+        <v>93</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2139</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1578</v>
+      </c>
+      <c r="I12" s="13">
+        <v>9765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4383</v>
+      </c>
+      <c r="C13" s="5">
+        <v>44813</v>
+      </c>
+      <c r="D13" s="5">
+        <v>21978</v>
+      </c>
+      <c r="E13" s="5">
+        <v>654</v>
+      </c>
+      <c r="F13" s="5">
+        <v>50</v>
+      </c>
+      <c r="G13" s="5">
+        <v>2892</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1458</v>
+      </c>
+      <c r="I13" s="13">
+        <v>8078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>6085</v>
+      </c>
+      <c r="C14" s="5">
+        <v>70026</v>
+      </c>
+      <c r="D14" s="5">
+        <v>37162</v>
+      </c>
+      <c r="E14" s="5">
+        <v>425</v>
+      </c>
+      <c r="F14" s="5">
+        <v>126</v>
+      </c>
+      <c r="G14" s="5">
+        <v>2499</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2302</v>
+      </c>
+      <c r="I14" s="13">
+        <v>10171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5943</v>
+      </c>
+      <c r="C15" s="5">
+        <v>82981</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1283</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>123</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5674</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1465</v>
+      </c>
+      <c r="I15" s="13">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>9282</v>
+      </c>
+      <c r="C16" s="5">
+        <v>212713</v>
+      </c>
+      <c r="D16" s="5">
+        <v>112478</v>
+      </c>
+      <c r="E16" s="5">
+        <v>6995</v>
+      </c>
+      <c r="F16" s="5">
+        <v>94</v>
+      </c>
+      <c r="G16" s="5">
+        <v>7185</v>
+      </c>
+      <c r="H16" s="5">
+        <v>4748</v>
+      </c>
+      <c r="I16" s="13">
+        <v>76671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4661</v>
+      </c>
+      <c r="C17" s="5">
+        <v>94931</v>
+      </c>
+      <c r="D17" s="5">
+        <v>554</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>49</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3483</v>
+      </c>
+      <c r="H17" s="5">
+        <v>232</v>
+      </c>
+      <c r="I17" s="13">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>6087</v>
+      </c>
+      <c r="C18" s="5">
+        <v>130605</v>
+      </c>
+      <c r="D18" s="5">
+        <v>67912</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6246</v>
+      </c>
+      <c r="F18" s="5">
+        <v>105</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3222</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1584</v>
+      </c>
+      <c r="I18" s="13">
+        <v>24557</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>9701</v>
+      </c>
+      <c r="C19" s="5">
+        <v>83964</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1604</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>205</v>
+      </c>
+      <c r="G19" s="5">
+        <v>8400</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1154</v>
+      </c>
+      <c r="I19" s="13">
+        <v>8306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5378</v>
+      </c>
+      <c r="C20" s="5">
+        <v>45607</v>
+      </c>
+      <c r="D20" s="5">
+        <v>665</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>48</v>
+      </c>
+      <c r="G20" s="5">
+        <v>8850</v>
+      </c>
+      <c r="H20" s="5">
+        <v>527</v>
+      </c>
+      <c r="I20" s="13">
+        <v>7779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>6618</v>
+      </c>
+      <c r="C21" s="5">
+        <v>18493</v>
+      </c>
+      <c r="D21" s="5">
+        <v>162</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>96</v>
+      </c>
+      <c r="G21" s="5">
+        <v>8213</v>
+      </c>
+      <c r="H21" s="5">
+        <v>512</v>
+      </c>
+      <c r="I21" s="14">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3758</v>
+      </c>
+      <c r="C22" s="5">
+        <v>34645</v>
+      </c>
+      <c r="D22" s="5">
+        <v>21963</v>
+      </c>
+      <c r="E22" s="5">
+        <v>96</v>
+      </c>
+      <c r="F22" s="5">
+        <v>29</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1694</v>
+      </c>
+      <c r="H22" s="5">
+        <v>989</v>
+      </c>
+      <c r="I22" s="13">
+        <v>8986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="16">
+        <v>2836</v>
+      </c>
+      <c r="C23" s="16">
+        <v>14805</v>
+      </c>
+      <c r="D23" s="16">
+        <v>5187</v>
+      </c>
+      <c r="E23" s="16">
+        <v>15</v>
+      </c>
+      <c r="F23" s="16">
+        <v>30</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1996</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1653</v>
+      </c>
+      <c r="I23" s="17">
+        <v>3414</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A3:A23">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>#REF!="Jadranska Hrvatska"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="2015" sheetId="4" r:id="rId3"/>
     <sheet name="2016" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,9 +465,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Dobro" xfId="2" builtinId="26"/>
+    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Provjera ćelije" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -554,7 +554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,7 +589,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -801,31 +801,31 @@
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
@@ -851,44 +851,44 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <f>SUM(B3:B23)</f>
+        <f t="shared" ref="B2:I2" si="0">SUM(B3:B23)</f>
         <v>157440</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM(C3:C23)</f>
+        <f t="shared" si="0"/>
         <v>1571200</v>
       </c>
       <c r="D2" s="4">
-        <f>SUM(D3:D23)</f>
+        <f t="shared" si="0"/>
         <v>590940</v>
       </c>
       <c r="E2" s="4">
-        <f>SUM(E3:E23)</f>
+        <f t="shared" si="0"/>
         <v>18277</v>
       </c>
       <c r="F2" s="4">
-        <f>SUM(F3:F23)</f>
+        <f t="shared" si="0"/>
         <v>1760</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(G3:G23)</f>
+        <f t="shared" si="0"/>
         <v>72940</v>
       </c>
       <c r="H2" s="4">
-        <f>SUM(H3:H23)</f>
+        <f t="shared" si="0"/>
         <v>27350</v>
       </c>
       <c r="I2" s="19">
-        <f>SUM(I3:I23)</f>
+        <f t="shared" si="0"/>
         <v>453197</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -917,7 +917,7 @@
         <v>38884</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -948,7 +948,7 @@
       <c r="AD4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -982,7 +982,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>27142</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>10290</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>68228</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>66995</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>16131</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>16368</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>11278</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>15427</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>72027</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>25618</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>7987</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>10752</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1519,24 +1519,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
@@ -1562,44 +1562,44 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <f>SUM(B3:B23)</f>
+        <f t="shared" ref="B2:I2" si="0">SUM(B3:B23)</f>
         <v>149176</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM(C3:C23)</f>
+        <f t="shared" si="0"/>
         <v>1543399</v>
       </c>
       <c r="D2" s="4">
-        <f>SUM(D3:D23)</f>
+        <f t="shared" si="0"/>
         <v>578021</v>
       </c>
       <c r="E2" s="4">
-        <f>SUM(E3:E23)</f>
+        <f t="shared" si="0"/>
         <v>19711</v>
       </c>
       <c r="F2" s="4">
-        <f>SUM(F3:F23)</f>
+        <f t="shared" si="0"/>
         <v>1689</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(G3:G23)</f>
+        <f t="shared" si="0"/>
         <v>72248</v>
       </c>
       <c r="H2" s="4">
-        <f>SUM(H3:H23)</f>
+        <f t="shared" si="0"/>
         <v>27507</v>
       </c>
       <c r="I2" s="19">
-        <f>SUM(I3:I23)</f>
+        <f t="shared" si="0"/>
         <v>442132</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>38004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>14767</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>36843</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>26854</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>9845</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>66934</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>63956</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>15684</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>15976</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>10984</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>15094</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>71943</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>24892</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>7385</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>10294</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -2210,7 +2210,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A23">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>#REF!="Jadranska Hrvatska"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2226,20 +2226,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="4" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2278,31 +2278,31 @@
         <v>144478</v>
       </c>
       <c r="D2" s="4">
-        <f>SUM(D3:D23)</f>
+        <f t="shared" ref="D2:I2" si="0">SUM(D3:D23)</f>
         <v>483672</v>
       </c>
       <c r="E2" s="4">
-        <f>SUM(E3:E23)</f>
+        <f t="shared" si="0"/>
         <v>17804</v>
       </c>
       <c r="F2" s="4">
-        <f>SUM(F3:F23)</f>
+        <f t="shared" si="0"/>
         <v>1806</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(G3:G23)</f>
+        <f t="shared" si="0"/>
         <v>71943</v>
       </c>
       <c r="H2" s="4">
-        <f>SUM(H3:H23)</f>
+        <f t="shared" si="0"/>
         <v>27820</v>
       </c>
       <c r="I2" s="19">
-        <f>SUM(I3:I23)</f>
+        <f t="shared" si="0"/>
         <v>437381</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>31053</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>11546</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>28347</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>53678</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>8294</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>60924</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>58924</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>13856</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>12843</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>9872</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>13835</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>73954</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>3885</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>24892</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>4956</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>7593</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>9356</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -2913,7 +2913,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A23">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!="Jadranska Hrvatska"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2925,24 +2925,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
@@ -2968,44 +2968,44 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <f>SUM(B3:B23)</f>
+        <f t="shared" ref="B2:I2" si="0">SUM(B3:B23)</f>
         <v>134459</v>
       </c>
       <c r="C2" s="4">
-        <f>SUM(C3:C23)</f>
+        <f t="shared" si="0"/>
         <v>1562983</v>
       </c>
       <c r="D2" s="4">
-        <f>SUM(D3:D23)</f>
+        <f t="shared" si="0"/>
         <v>527098</v>
       </c>
       <c r="E2" s="4">
-        <f>SUM(E3:E23)</f>
+        <f t="shared" si="0"/>
         <v>15071.5</v>
       </c>
       <c r="F2" s="4">
-        <f>SUM(F3:F23)</f>
+        <f t="shared" si="0"/>
         <v>1848</v>
       </c>
       <c r="G2" s="4">
-        <f>SUM(G3:G23)</f>
+        <f t="shared" si="0"/>
         <v>71965</v>
       </c>
       <c r="H2" s="4">
-        <f>SUM(H3:H23)</f>
+        <f t="shared" si="0"/>
         <v>27780</v>
       </c>
       <c r="I2" s="12">
-        <f>SUM(I3:I23)</f>
+        <f t="shared" si="0"/>
         <v>418443</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>26348</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>8960</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>18077</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>92891</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>42162</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>10410</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>9765</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>8078</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>10171</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>76671</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>24557</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>7779</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>8986</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -3616,7 +3616,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:A23">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>#REF!="Jadranska Hrvatska"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
     <sheet name="2014" sheetId="3" r:id="rId2"/>
     <sheet name="2015" sheetId="4" r:id="rId3"/>
     <sheet name="2016" sheetId="2" r:id="rId4"/>
+    <sheet name="2017" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="45">
   <si>
     <t>Republika Hrvatska</t>
   </si>
@@ -110,13 +111,55 @@
   </si>
   <si>
     <t>1 973</t>
+  </si>
+  <si>
+    <t>Godina</t>
+  </si>
+  <si>
+    <t>Urod</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>71.97</t>
+  </si>
+  <si>
+    <t>72.94</t>
+  </si>
+  <si>
+    <t>72.25</t>
+  </si>
+  <si>
+    <t>71.94</t>
+  </si>
+  <si>
+    <t>145.19</t>
+  </si>
+  <si>
+    <t>217.13</t>
+  </si>
+  <si>
+    <t>289.10</t>
+  </si>
+  <si>
+    <t>724.36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +210,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +252,14 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -402,13 +463,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -463,11 +585,30 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="8" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Dobro" xfId="2" builtinId="26"/>
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Provjera ćelije" xfId="1" builtinId="23"/>
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -512,7 +653,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema sustava Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -554,7 +695,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -589,7 +730,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -804,28 +945,28 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
@@ -851,7 +992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -888,7 +1029,7 @@
         <v>453197</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -917,7 +1058,7 @@
         <v>38884</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -948,7 +1089,7 @@
       <c r="AD4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -982,7 +1123,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +1152,7 @@
         <v>27142</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1040,7 +1181,7 @@
         <v>10290</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1210,7 @@
         <v>68228</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1098,7 +1239,7 @@
         <v>66995</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1127,7 +1268,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1156,7 +1297,7 @@
         <v>16131</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1326,7 @@
         <v>16368</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1214,7 +1355,7 @@
         <v>11278</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1243,7 +1384,7 @@
         <v>15427</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1413,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1301,7 +1442,7 @@
         <v>72027</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1330,7 +1471,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1359,7 +1500,7 @@
         <v>25618</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1388,7 +1529,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -1417,7 +1558,7 @@
         <v>7987</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1446,7 +1587,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1475,7 +1616,7 @@
         <v>10752</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1519,24 +1660,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
@@ -1562,7 +1703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1599,7 +1740,7 @@
         <v>442132</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1628,7 +1769,7 @@
         <v>38004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1657,7 +1798,7 @@
         <v>14767</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1686,7 +1827,7 @@
         <v>36843</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1715,7 +1856,7 @@
         <v>26854</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1744,7 +1885,7 @@
         <v>9845</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1773,7 +1914,7 @@
         <v>66934</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1802,7 +1943,7 @@
         <v>63956</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1831,7 +1972,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1860,7 +2001,7 @@
         <v>15684</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1889,7 +2030,7 @@
         <v>15976</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1918,7 +2059,7 @@
         <v>10984</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1947,7 +2088,7 @@
         <v>15094</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1976,7 +2117,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -2005,7 +2146,7 @@
         <v>71943</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2034,7 +2175,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -2063,7 +2204,7 @@
         <v>24892</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -2092,7 +2233,7 @@
         <v>2479</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -2121,7 +2262,7 @@
         <v>7385</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -2150,7 +2291,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2179,7 +2320,7 @@
         <v>10294</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -2226,20 +2367,20 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
     <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
@@ -2265,7 +2406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2302,7 +2443,7 @@
         <v>437381</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2331,7 +2472,7 @@
         <v>31053</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2360,7 +2501,7 @@
         <v>11546</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2389,7 +2530,7 @@
         <v>28347</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -2418,7 +2559,7 @@
         <v>53678</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -2447,7 +2588,7 @@
         <v>8294</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -2476,7 +2617,7 @@
         <v>60924</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -2505,7 +2646,7 @@
         <v>58924</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -2534,7 +2675,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -2563,7 +2704,7 @@
         <v>13856</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -2592,7 +2733,7 @@
         <v>12843</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -2621,7 +2762,7 @@
         <v>9872</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -2650,7 +2791,7 @@
         <v>13835</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -2679,7 +2820,7 @@
         <v>3984</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -2708,7 +2849,7 @@
         <v>73954</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2737,7 +2878,7 @@
         <v>3885</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -2766,7 +2907,7 @@
         <v>24892</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -2795,7 +2936,7 @@
         <v>4956</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -2824,7 +2965,7 @@
         <v>7593</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -2853,7 +2994,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2882,7 +3023,7 @@
         <v>9356</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -2926,23 +3067,23 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
@@ -2968,7 +3109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3146,7 @@
         <v>418443</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -3034,7 +3175,7 @@
         <v>26348</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -3063,7 +3204,7 @@
         <v>8960</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -3092,7 +3233,7 @@
         <v>18077</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -3121,7 +3262,7 @@
         <v>92891</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -3150,7 +3291,7 @@
         <v>6305</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -3179,7 +3320,7 @@
         <v>42162</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -3208,7 +3349,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -3237,7 +3378,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -3266,7 +3407,7 @@
         <v>10410</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -3295,7 +3436,7 @@
         <v>9765</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -3324,7 +3465,7 @@
         <v>8078</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -3353,7 +3494,7 @@
         <v>10171</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -3382,7 +3523,7 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -3411,7 +3552,7 @@
         <v>76671</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -3440,7 +3581,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -3469,7 +3610,7 @@
         <v>24557</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -3498,7 +3639,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -3527,7 +3668,7 @@
         <v>7779</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -3556,7 +3697,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -3585,7 +3726,7 @@
         <v>8986</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -3622,4 +3763,131 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22">
+        <v>2013</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="22">
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="22">
+        <v>4</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>